--- a/data/trans_orig/P6702-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>31902</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21533</v>
+        <v>22702</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43018</v>
+        <v>43005</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.174308575231877</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1176537588593835</v>
+        <v>0.1240401057689159</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2350477269810735</v>
+        <v>0.2349789659745557</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -764,19 +764,19 @@
         <v>49183</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37811</v>
+        <v>38056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61206</v>
+        <v>61478</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3586374793231004</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2757099967977975</v>
+        <v>0.2774979580649178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4463029691322887</v>
+        <v>0.4482928456258057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -785,19 +785,19 @@
         <v>81085</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65861</v>
+        <v>67436</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98022</v>
+        <v>97872</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.253265797288827</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.205713540261528</v>
+        <v>0.2106349885959512</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3061660661113198</v>
+        <v>0.3056996809650009</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>28308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18777</v>
+        <v>18732</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38459</v>
+        <v>38558</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1546737012345116</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1025980314805737</v>
+        <v>0.1023518885026912</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2101352396579301</v>
+        <v>0.2106760315000113</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -835,19 +835,19 @@
         <v>25268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16033</v>
+        <v>17309</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35699</v>
+        <v>36320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1842514360049751</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1169086062230713</v>
+        <v>0.1262129181793968</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2603101559562717</v>
+        <v>0.2648433613737085</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -856,19 +856,19 @@
         <v>53576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41057</v>
+        <v>40685</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>67371</v>
+        <v>68004</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1673433136522</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1282413454718484</v>
+        <v>0.1270779714492078</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2104312275915228</v>
+        <v>0.2124072322035989</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>67147</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54961</v>
+        <v>54873</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80343</v>
+        <v>81893</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3668892427868482</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3003041382703692</v>
+        <v>0.2998240104149227</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4389901794486457</v>
+        <v>0.4474595368174515</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -906,19 +906,19 @@
         <v>38682</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28164</v>
+        <v>28569</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51861</v>
+        <v>51180</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2820675700881483</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2053694314695284</v>
+        <v>0.2083183498983811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3781637443849901</v>
+        <v>0.3731983312928734</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>101</v>
@@ -927,19 +927,19 @@
         <v>105830</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>89918</v>
+        <v>87608</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>124908</v>
+        <v>121895</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3305559087417506</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2808553818046378</v>
+        <v>0.2736398208601602</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3901445642045545</v>
+        <v>0.3807352335820434</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>36472</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26400</v>
+        <v>27265</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48535</v>
+        <v>49338</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1992816691282696</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1442467217505338</v>
+        <v>0.1489725965894025</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2651926405781412</v>
+        <v>0.269581071776521</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -977,19 +977,19 @@
         <v>11419</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6081</v>
+        <v>6113</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18877</v>
+        <v>20415</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08326796515242205</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.044344587129384</v>
+        <v>0.04457269435843542</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1376497362970902</v>
+        <v>0.1488608998825975</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -998,19 +998,19 @@
         <v>47892</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36217</v>
+        <v>36006</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61734</v>
+        <v>62157</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1495872393174301</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.113121388551506</v>
+        <v>0.11246300985797</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1928238463101488</v>
+        <v>0.1941433078669609</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>19189</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12195</v>
+        <v>11957</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29788</v>
+        <v>29927</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1048468116184936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06663319658488298</v>
+        <v>0.06533487676069523</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1627574390421043</v>
+        <v>0.1635215702894036</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1048,19 +1048,19 @@
         <v>12586</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6443</v>
+        <v>7212</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21496</v>
+        <v>21724</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09177554943135408</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04698276507644275</v>
+        <v>0.05258552279577797</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1567493724417731</v>
+        <v>0.1584090072332743</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -1069,19 +1069,19 @@
         <v>31775</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21453</v>
+        <v>21917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44627</v>
+        <v>44526</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09924774099979225</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06700796532591334</v>
+        <v>0.0684556376843581</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1393909250510814</v>
+        <v>0.1390746816100077</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>166869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143680</v>
+        <v>144412</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191884</v>
+        <v>192988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1829142334162711</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1574949189170853</v>
+        <v>0.1582973774804566</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2103342031866072</v>
+        <v>0.21154377520282</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -1194,19 +1194,19 @@
         <v>107751</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88782</v>
+        <v>88391</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126456</v>
+        <v>126041</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1884095158397934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1552414204121389</v>
+        <v>0.1545568263513818</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2211163944667994</v>
+        <v>0.2203911918541312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>256</v>
@@ -1215,19 +1215,19 @@
         <v>274620</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>243761</v>
+        <v>242860</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>305430</v>
+        <v>308523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1850317264556856</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1642393746147433</v>
+        <v>0.1636323361154362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2057902437608721</v>
+        <v>0.2078744170625598</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>133898</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112642</v>
+        <v>113643</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>157108</v>
+        <v>159117</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.146772861903757</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1234725141065546</v>
+        <v>0.1245704587665265</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.172214718920942</v>
+        <v>0.1744159505495377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>88</v>
@@ -1265,19 +1265,19 @@
         <v>95491</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78454</v>
+        <v>77886</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>114579</v>
+        <v>114098</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1669723109245626</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.137182082015644</v>
+        <v>0.1361885822546274</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2003492217761845</v>
+        <v>0.1995067826758364</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>210</v>
@@ -1286,19 +1286,19 @@
         <v>229389</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>200467</v>
+        <v>201042</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>260730</v>
+        <v>259030</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1545563003888256</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.135069441643772</v>
+        <v>0.1354562814082737</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1756728695790498</v>
+        <v>0.1745270438764829</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>301673</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>274213</v>
+        <v>276888</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>332861</v>
+        <v>332879</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3306799485761495</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3005791449184939</v>
+        <v>0.3035113099958938</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3648662929090944</v>
+        <v>0.3648861102723174</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>181</v>
@@ -1336,19 +1336,19 @@
         <v>191061</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>169697</v>
+        <v>168575</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>214080</v>
+        <v>213580</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3340829054329589</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2967258205684427</v>
+        <v>0.2947633143909061</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3743328797087873</v>
+        <v>0.3734586370174304</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>473</v>
@@ -1357,19 +1357,19 @@
         <v>492735</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>458951</v>
+        <v>454526</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>530616</v>
+        <v>528414</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3319912073800425</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3092285385802023</v>
+        <v>0.3062474320919806</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3575147457917831</v>
+        <v>0.3560306502019001</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>189830</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>163975</v>
+        <v>163436</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>215801</v>
+        <v>213372</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2080828486876591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1797410403772261</v>
+        <v>0.1791512233636688</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2365507998377663</v>
+        <v>0.2338887067508973</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -1407,19 +1407,19 @@
         <v>115863</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>97155</v>
+        <v>97796</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>135071</v>
+        <v>138265</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2025942889721074</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1698816669170309</v>
+        <v>0.1710026416372274</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2361807901543942</v>
+        <v>0.241765181434664</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>291</v>
@@ -1428,19 +1428,19 @@
         <v>305694</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>273901</v>
+        <v>274486</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>337484</v>
+        <v>338372</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.205967946104246</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1845471642247594</v>
+        <v>0.1849412259924281</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2273873902054307</v>
+        <v>0.2279861579919823</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>120011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100569</v>
+        <v>99987</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142807</v>
+        <v>143166</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1315501074161633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.110239234921649</v>
+        <v>0.1096014974500189</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1565387556004498</v>
+        <v>0.1569322612883266</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -1478,19 +1478,19 @@
         <v>61731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47138</v>
+        <v>47719</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77730</v>
+        <v>78732</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1079409788305777</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08242398136935278</v>
+        <v>0.08344014669064953</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1359165245284445</v>
+        <v>0.1376676935612817</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>169</v>
@@ -1499,19 +1499,19 @@
         <v>181742</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>158499</v>
+        <v>156112</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>211463</v>
+        <v>208348</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1224528196712002</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1067922107693494</v>
+        <v>0.1051843267777949</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1424779066000797</v>
+        <v>0.1403793995908373</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>47659</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34195</v>
+        <v>35254</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62503</v>
+        <v>61802</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.150696618503982</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1081245805310721</v>
+        <v>0.111474166828804</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1976341541445475</v>
+        <v>0.1954177152279303</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1624,19 +1624,19 @@
         <v>54160</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40764</v>
+        <v>41302</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69377</v>
+        <v>69246</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2317511817146965</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1744311130581449</v>
+        <v>0.1767347301459239</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2968659746517227</v>
+        <v>0.2963072974386379</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>93</v>
@@ -1645,19 +1645,19 @@
         <v>101818</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84180</v>
+        <v>84105</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>123774</v>
+        <v>123610</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1851398280247964</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1530668037652399</v>
+        <v>0.1529305936449468</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.225062421946522</v>
+        <v>0.2247649787543184</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>48439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35650</v>
+        <v>35925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65177</v>
+        <v>63168</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1531620389413644</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1127246398172027</v>
+        <v>0.1135928739505761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2060876960096366</v>
+        <v>0.1997369535924174</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -1695,19 +1695,19 @@
         <v>29965</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20160</v>
+        <v>20467</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42578</v>
+        <v>42329</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1282215895546719</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08626617330447713</v>
+        <v>0.08757817259227571</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1821932479142027</v>
+        <v>0.1811271030591249</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>71</v>
@@ -1716,19 +1716,19 @@
         <v>78404</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>62177</v>
+        <v>62672</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>97259</v>
+        <v>97658</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1425638802474987</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1130578708072746</v>
+        <v>0.1139593551302137</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1768491027085471</v>
+        <v>0.1775756425405372</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>114975</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>96888</v>
+        <v>96872</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>134559</v>
+        <v>133448</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3635485882253756</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3063569151927842</v>
+        <v>0.306307894927666</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4254734376825881</v>
+        <v>0.4219610201085829</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -1766,19 +1766,19 @@
         <v>78501</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63896</v>
+        <v>63489</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95922</v>
+        <v>94565</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3359109077022718</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2734137926309508</v>
+        <v>0.271672699958468</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4104555556494875</v>
+        <v>0.4046480004242481</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>171</v>
@@ -1787,19 +1787,19 @@
         <v>193476</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>169914</v>
+        <v>172207</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>218831</v>
+        <v>220126</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3518042720114704</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3089612227399097</v>
+        <v>0.3131303372851488</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3979085562537921</v>
+        <v>0.4002627870078088</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>66108</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51379</v>
+        <v>50911</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81673</v>
+        <v>80454</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2090318295460668</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.162459320586115</v>
+        <v>0.1609802731679318</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2582477872160466</v>
+        <v>0.2543942531190948</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1837,19 +1837,19 @@
         <v>41148</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29683</v>
+        <v>30415</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55341</v>
+        <v>55775</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1760738820589664</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1270136672501207</v>
+        <v>0.1301492913400192</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2368048071753367</v>
+        <v>0.2386658258622083</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>98</v>
@@ -1858,19 +1858,19 @@
         <v>107256</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90386</v>
+        <v>88245</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>127988</v>
+        <v>127091</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1950267267399099</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1643525411704282</v>
+        <v>0.1604580377736511</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2327249898903747</v>
+        <v>0.2310940564637191</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>39077</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27510</v>
+        <v>28392</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53833</v>
+        <v>53914</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1235609247832112</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08698633740299426</v>
+        <v>0.08977638994251272</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1702180180616676</v>
+        <v>0.1704764258496032</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -1908,19 +1908,19 @@
         <v>29923</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19916</v>
+        <v>19995</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41247</v>
+        <v>40750</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1280424389693935</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08522037106038137</v>
+        <v>0.08555781554192936</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1764983403910866</v>
+        <v>0.174373177632882</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>62</v>
@@ -1929,19 +1929,19 @@
         <v>69000</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>53715</v>
+        <v>53367</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87536</v>
+        <v>87541</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1254652929763246</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0976723907347012</v>
+        <v>0.0970383327349691</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1591703004538018</v>
+        <v>0.1591792656789191</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>246430</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>216165</v>
+        <v>218241</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>277413</v>
+        <v>280565</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1745801443858245</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1531391262247815</v>
+        <v>0.1546100843799947</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1965294124776735</v>
+        <v>0.1987623191721497</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>194</v>
@@ -2054,19 +2054,19 @@
         <v>211094</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>186192</v>
+        <v>185174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>239372</v>
+        <v>238342</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2239166279638085</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.197502500791089</v>
+        <v>0.196421904364298</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2539129836345562</v>
+        <v>0.2528199635322127</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>425</v>
@@ -2075,19 +2075,19 @@
         <v>457524</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>416639</v>
+        <v>421654</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>499654</v>
+        <v>496789</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1943360579283443</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1769699542562821</v>
+        <v>0.1791002445535787</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2122309330324663</v>
+        <v>0.2110142291024444</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>210645</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>184767</v>
+        <v>182301</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>238254</v>
+        <v>239358</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1492287455092298</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1308955989237113</v>
+        <v>0.1291488439003047</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1687882657764078</v>
+        <v>0.1695699792203454</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>139</v>
@@ -2125,19 +2125,19 @@
         <v>150724</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>127208</v>
+        <v>127314</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>174137</v>
+        <v>174332</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1598798939942264</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1349353372492263</v>
+        <v>0.1350476736472465</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1847147959520197</v>
+        <v>0.1849212440232652</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>332</v>
@@ -2146,19 +2146,19 @@
         <v>361369</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>326089</v>
+        <v>326975</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>400418</v>
+        <v>399811</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1534938076567079</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1385081355642553</v>
+        <v>0.1388844293936779</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1700800476879124</v>
+        <v>0.1698219746753842</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>483796</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>446095</v>
+        <v>446531</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>518367</v>
+        <v>520735</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3427389013528302</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3160303179663592</v>
+        <v>0.3163393301770133</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3672301703744579</v>
+        <v>0.3689082903963198</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>288</v>
@@ -2196,19 +2196,19 @@
         <v>308245</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>279475</v>
+        <v>280029</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>338099</v>
+        <v>340011</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3269693883579479</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.296452117643428</v>
+        <v>0.2970394875908562</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3586363333544144</v>
+        <v>0.3606645990550241</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>745</v>
@@ -2217,19 +2217,19 @@
         <v>792041</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>741947</v>
+        <v>749989</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>835483</v>
+        <v>843289</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3364242815676139</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3151465261870814</v>
+        <v>0.3185624889885577</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3548766836692548</v>
+        <v>0.3581920068053615</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>292410</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>263279</v>
+        <v>264361</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>326319</v>
+        <v>328637</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2071543324379689</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1865165833386514</v>
+        <v>0.187283275723943</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2311764720004791</v>
+        <v>0.2328187269935977</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>153</v>
@@ -2267,19 +2267,19 @@
         <v>168430</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>143931</v>
+        <v>144754</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>193755</v>
+        <v>194454</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1786616948523759</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1526741879327937</v>
+        <v>0.1535467793040176</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2055242862220917</v>
+        <v>0.2062661846091721</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>435</v>
@@ -2288,19 +2288,19 @@
         <v>460841</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>423177</v>
+        <v>426533</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>505179</v>
+        <v>499647</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.195744964685815</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.179747171827618</v>
+        <v>0.1811724970563053</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2145777067504337</v>
+        <v>0.2122282926944385</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>178277</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>153588</v>
+        <v>151601</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>205455</v>
+        <v>208013</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1262978763141465</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1088071670552424</v>
+        <v>0.1073998327570159</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1455520702856543</v>
+        <v>0.1473644606578827</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>96</v>
@@ -2338,19 +2338,19 @@
         <v>104240</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>85095</v>
+        <v>86122</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>125683</v>
+        <v>127099</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1105723948316413</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0902642468899693</v>
+        <v>0.09135347734717601</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.13331789219853</v>
+        <v>0.1348191767096088</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>259</v>
@@ -2359,19 +2359,19 @@
         <v>282517</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>250057</v>
+        <v>250070</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>318107</v>
+        <v>319212</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.120000888161519</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1062134197456932</v>
+        <v>0.1062187662377928</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1351179446736592</v>
+        <v>0.1355873125484953</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>27215</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18141</v>
+        <v>18663</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37942</v>
+        <v>38090</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1926086451113483</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1283885775308061</v>
+        <v>0.1320850196371557</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2685258923817229</v>
+        <v>0.2695674372787895</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2723,19 +2723,19 @@
         <v>14528</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8713</v>
+        <v>8708</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22159</v>
+        <v>21819</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2101656850585686</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1260346087017764</v>
+        <v>0.1259725831553275</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3205566861057404</v>
+        <v>0.315634771260198</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -2744,19 +2744,19 @@
         <v>41744</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30696</v>
+        <v>31063</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54804</v>
+        <v>54460</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1983763820654342</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.145875060217597</v>
+        <v>0.1476182902771995</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2604431088259868</v>
+        <v>0.2588067314999241</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>17845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10643</v>
+        <v>10888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27461</v>
+        <v>27587</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1262936735792255</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07532326427640841</v>
+        <v>0.07705317179788423</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1943462153801947</v>
+        <v>0.1952407347173001</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -2794,19 +2794,19 @@
         <v>10240</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5217</v>
+        <v>5135</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17213</v>
+        <v>17820</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1481247877291787</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07547118584313543</v>
+        <v>0.07427846253738575</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2490054943067582</v>
+        <v>0.2577824047017346</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -2815,19 +2815,19 @@
         <v>28085</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18918</v>
+        <v>19003</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39501</v>
+        <v>39452</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1334655046059864</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08990059090132091</v>
+        <v>0.09030782094604702</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1877204739647176</v>
+        <v>0.1874834969557352</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>50370</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39749</v>
+        <v>38972</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>62816</v>
+        <v>61916</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3564810008021405</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2813146511890117</v>
+        <v>0.2758114692421356</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.444559669316856</v>
+        <v>0.438193974258254</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -2865,19 +2865,19 @@
         <v>26508</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19435</v>
+        <v>19260</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34865</v>
+        <v>34724</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3834647189953804</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2811522684159876</v>
+        <v>0.278619737020388</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.504350127005451</v>
+        <v>0.5023115903867313</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>75</v>
@@ -2886,19 +2886,19 @@
         <v>76879</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63390</v>
+        <v>63439</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>93516</v>
+        <v>90335</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3653455354303956</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3012457820669786</v>
+        <v>0.3014774052866437</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4444103108731601</v>
+        <v>0.4292922672678386</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>28752</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19932</v>
+        <v>19690</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38515</v>
+        <v>40717</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2034807208618147</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1410591353881128</v>
+        <v>0.1393493008443596</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2725758036878502</v>
+        <v>0.288159945534463</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -2936,19 +2936,19 @@
         <v>11788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5942</v>
+        <v>6723</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19572</v>
+        <v>19201</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1705192178855091</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0859497916798608</v>
+        <v>0.09725430801223489</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2831256161281653</v>
+        <v>0.2777582733115611</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -2957,19 +2957,19 @@
         <v>40539</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30483</v>
+        <v>30366</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53082</v>
+        <v>54133</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.192652399040473</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1448647896794095</v>
+        <v>0.1443081736473597</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2522604190983275</v>
+        <v>0.2572532629192297</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>17116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10162</v>
+        <v>10121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25260</v>
+        <v>27089</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1211359596454711</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07191615507195946</v>
+        <v>0.07163118168774039</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1787680728312553</v>
+        <v>0.1917164120136924</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -3007,19 +3007,19 @@
         <v>6064</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2831</v>
+        <v>2196</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11836</v>
+        <v>12118</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08772559033136317</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04095233540948627</v>
+        <v>0.03176235242110063</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1712206561697003</v>
+        <v>0.1753003615462664</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -3028,19 +3028,19 @@
         <v>23181</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14514</v>
+        <v>15251</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32882</v>
+        <v>33971</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1101601788577108</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06897401988403123</v>
+        <v>0.07247748175314182</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1562647670641318</v>
+        <v>0.1614402036630542</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>150661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>128806</v>
+        <v>126611</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>173723</v>
+        <v>175462</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1631943430838534</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1395214591431766</v>
+        <v>0.1371430750411742</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1881743433745088</v>
+        <v>0.1900580789928452</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>118</v>
@@ -3153,19 +3153,19 @@
         <v>119141</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>97887</v>
+        <v>100053</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139008</v>
+        <v>139728</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1831413378229624</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1504696565169535</v>
+        <v>0.1537986327626063</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2136803330839945</v>
+        <v>0.2147871403097937</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>252</v>
@@ -3174,19 +3174,19 @@
         <v>269803</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>238602</v>
+        <v>242575</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>298607</v>
+        <v>304121</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1714398906068099</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1516141106788747</v>
+        <v>0.1541387211946795</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1897426624584362</v>
+        <v>0.1932467046601188</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>157608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>135788</v>
+        <v>132957</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>182147</v>
+        <v>181348</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1707195007144961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1470839840300616</v>
+        <v>0.1440168505707877</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1972994883820357</v>
+        <v>0.1964342041387193</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>108</v>
@@ -3224,19 +3224,19 @@
         <v>108871</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>89830</v>
+        <v>91400</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128056</v>
+        <v>128533</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1673543926551325</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1380851536015355</v>
+        <v>0.1404975619127851</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1968449836490421</v>
+        <v>0.1975782982666342</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>257</v>
@@ -3245,19 +3245,19 @@
         <v>266480</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>239025</v>
+        <v>238199</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>295974</v>
+        <v>297765</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1693284561593499</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1518826836619464</v>
+        <v>0.1513579499211918</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.18806987239902</v>
+        <v>0.1892076018921904</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>300971</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>270742</v>
+        <v>274788</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>328502</v>
+        <v>332131</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3260083608159612</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2932639999911088</v>
+        <v>0.2976475264113074</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3558292139560847</v>
+        <v>0.3597604725443935</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>216</v>
@@ -3295,19 +3295,19 @@
         <v>218823</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>193921</v>
+        <v>193821</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>244621</v>
+        <v>241195</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3363693403267353</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2980914848559121</v>
+        <v>0.2979379950188928</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3760256602146156</v>
+        <v>0.3707594924215009</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>502</v>
@@ -3316,19 +3316,19 @@
         <v>519794</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>484946</v>
+        <v>482688</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>558483</v>
+        <v>556404</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3302913092028159</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.308147657521852</v>
+        <v>0.3067132430181882</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3548753753806274</v>
+        <v>0.3535540470543808</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>213074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>186331</v>
+        <v>184570</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>239967</v>
+        <v>240337</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.230799620486748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2018317262317422</v>
+        <v>0.1999235368808732</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2599292955980402</v>
+        <v>0.2603298874125131</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>138</v>
@@ -3366,19 +3366,19 @@
         <v>145511</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124787</v>
+        <v>125735</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>169178</v>
+        <v>169645</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2236766866274812</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1918204808323781</v>
+        <v>0.1932771939654688</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2600564272773346</v>
+        <v>0.260775079171239</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>339</v>
@@ -3387,19 +3387,19 @@
         <v>358586</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>326964</v>
+        <v>322320</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>395235</v>
+        <v>391376</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.227855192496084</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2077618774726965</v>
+        <v>0.2048109923396065</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2511429357060375</v>
+        <v>0.2486911132984025</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>100886</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>81724</v>
+        <v>81956</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119778</v>
+        <v>121352</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1092781748989413</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08852246294756834</v>
+        <v>0.08877375905106696</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1297415681416209</v>
+        <v>0.131446630381555</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>56</v>
@@ -3437,19 +3437,19 @@
         <v>58196</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45361</v>
+        <v>44686</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74796</v>
+        <v>73507</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08945824256768865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06972834854676478</v>
+        <v>0.0686898359021535</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1149745155044905</v>
+        <v>0.112993527601886</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>149</v>
@@ -3458,19 +3458,19 @@
         <v>159082</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>135464</v>
+        <v>132693</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>183354</v>
+        <v>181396</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1010851515349403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0860776384931816</v>
+        <v>0.08431699341488215</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1165082895449839</v>
+        <v>0.1152638054812959</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>54000</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41263</v>
+        <v>41591</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68546</v>
+        <v>68418</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1549784430796017</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1184235174623525</v>
+        <v>0.1193643373616516</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1967241751046744</v>
+        <v>0.1963556349364165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -3583,19 +3583,19 @@
         <v>67697</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53035</v>
+        <v>52990</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82273</v>
+        <v>82768</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2194734699131276</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1719380301655551</v>
+        <v>0.1717931043274026</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.266729090176718</v>
+        <v>0.2683331819179492</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -3604,19 +3604,19 @@
         <v>121698</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102201</v>
+        <v>103465</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142081</v>
+        <v>146282</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.185263055090672</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.155582734315869</v>
+        <v>0.1575063998539636</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2162937408224608</v>
+        <v>0.222688701415067</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>79591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63180</v>
+        <v>64316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>96215</v>
+        <v>96814</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2284211574747094</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1813235425648982</v>
+        <v>0.1845840047357166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2761321769437382</v>
+        <v>0.2778510338068044</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -3654,19 +3654,19 @@
         <v>53458</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41062</v>
+        <v>41286</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66758</v>
+        <v>68916</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.173311596981193</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1331228589241698</v>
+        <v>0.1338483915343677</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2164268537197877</v>
+        <v>0.2234237820125703</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>125</v>
@@ -3675,19 +3675,19 @@
         <v>133049</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>114047</v>
+        <v>111578</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>156272</v>
+        <v>155638</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2025436326547773</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1736170217372967</v>
+        <v>0.1698583466391059</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2378960040176916</v>
+        <v>0.236931161051022</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>123336</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>103879</v>
+        <v>106106</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>140647</v>
+        <v>141657</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3539687642564364</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2981262347881024</v>
+        <v>0.3045180388985917</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4036498022372511</v>
+        <v>0.4065493228418683</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>97</v>
@@ -3725,19 +3725,19 @@
         <v>98302</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83635</v>
+        <v>83191</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>116465</v>
+        <v>115714</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3186923862086063</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2711434694805293</v>
+        <v>0.2697033795209601</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3775786073621402</v>
+        <v>0.3751414905360385</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>212</v>
@@ -3746,19 +3746,19 @@
         <v>221638</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>198573</v>
+        <v>198442</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>246591</v>
+        <v>247540</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3374042092079992</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3022922576016311</v>
+        <v>0.3020931579191968</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3753905922465346</v>
+        <v>0.3768357842144197</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>63640</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48628</v>
+        <v>49924</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80989</v>
+        <v>79851</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1826422787881499</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1395607181918928</v>
+        <v>0.1432803846179709</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2324341551101042</v>
+        <v>0.2291695676276177</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -3796,19 +3796,19 @@
         <v>57685</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44758</v>
+        <v>45584</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72243</v>
+        <v>72815</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1870130656854876</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.14510411576458</v>
+        <v>0.1477812498028872</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2342121957124119</v>
+        <v>0.2360650049425332</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -3817,19 +3817,19 @@
         <v>121324</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>102734</v>
+        <v>101110</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>144532</v>
+        <v>143089</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.184694647658553</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.156394800120017</v>
+        <v>0.1539220924467216</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2200245783973223</v>
+        <v>0.2178281052659657</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>27871</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18870</v>
+        <v>19666</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40987</v>
+        <v>40734</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07998935640110268</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05415676089669284</v>
+        <v>0.05643986493913655</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1176303520001279</v>
+        <v>0.1169058321630347</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -3867,19 +3867,19 @@
         <v>31311</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22648</v>
+        <v>21369</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43822</v>
+        <v>43159</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1015094812115856</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07342295634116895</v>
+        <v>0.06927729434345875</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1420699883725494</v>
+        <v>0.1399205922259516</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>58</v>
@@ -3888,19 +3888,19 @@
         <v>59182</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>45991</v>
+        <v>44785</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>74222</v>
+        <v>75072</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0900944553879985</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07001310335764255</v>
+        <v>0.06817694156128773</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1129902373855927</v>
+        <v>0.114283973816467</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>231877</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>204177</v>
+        <v>202281</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>262713</v>
+        <v>263925</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1641097926279637</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1445052293992627</v>
+        <v>0.1431636033066407</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1859335593650717</v>
+        <v>0.1867915326902484</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>194</v>
@@ -4013,19 +4013,19 @@
         <v>201367</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>176431</v>
+        <v>176553</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>227471</v>
+        <v>226140</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1958585764052406</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.171605093545488</v>
+        <v>0.1717232582203093</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2212483222641907</v>
+        <v>0.2199535809207281</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>403</v>
@@ -4034,19 +4034,19 @@
         <v>433244</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>398932</v>
+        <v>398103</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>475208</v>
+        <v>477077</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1774817192691685</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1634253602042939</v>
+        <v>0.1630858513401511</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1946724031236735</v>
+        <v>0.1954383441275961</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>255044</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>225710</v>
+        <v>224925</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>285759</v>
+        <v>283821</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1805062975922908</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.159744815893843</v>
+        <v>0.1591895260956774</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2022444534842418</v>
+        <v>0.2008728646804208</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>171</v>
@@ -4084,19 +4084,19 @@
         <v>172569</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>148417</v>
+        <v>151332</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>197183</v>
+        <v>197078</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.16784869935014</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1443572991864383</v>
+        <v>0.147192555819835</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1917890425293337</v>
+        <v>0.1916866363017797</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>408</v>
@@ -4105,19 +4105,19 @@
         <v>427614</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>393914</v>
+        <v>388080</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>471341</v>
+        <v>468561</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1751751807742342</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1613699749671104</v>
+        <v>0.1589797448478828</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1930882437369169</v>
+        <v>0.191949677831187</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>474678</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>440567</v>
+        <v>437335</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>514414</v>
+        <v>508171</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3359509176900916</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3118090845452066</v>
+        <v>0.3095218143894258</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3640739382510982</v>
+        <v>0.3596557594845549</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>340</v>
@@ -4155,19 +4155,19 @@
         <v>343633</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>313586</v>
+        <v>314309</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>375032</v>
+        <v>375855</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3342325473490892</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.305007880926694</v>
+        <v>0.3057104749818143</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3647724297992294</v>
+        <v>0.3655728744313727</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>789</v>
@@ -4176,19 +4176,19 @@
         <v>818311</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>770726</v>
+        <v>769138</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>865458</v>
+        <v>865942</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.335227175883051</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3157336528777965</v>
+        <v>0.3150830564178052</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3545412708996372</v>
+        <v>0.3547396696873769</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>305466</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>275260</v>
+        <v>274675</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>338143</v>
+        <v>337343</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2161917758969165</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1948139012269826</v>
+        <v>0.1944002114045207</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2393187632043939</v>
+        <v>0.2387532037659156</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>206</v>
@@ -4226,19 +4226,19 @@
         <v>214984</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>189502</v>
+        <v>189473</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>243720</v>
+        <v>241412</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2091028770469407</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1843180808103751</v>
+        <v>0.1842899236984186</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2370531530441552</v>
+        <v>0.2348082827650024</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>489</v>
@@ -4247,19 +4247,19 @@
         <v>520449</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>477999</v>
+        <v>478940</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>563250</v>
+        <v>563196</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2132060793091738</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1958160840703605</v>
+        <v>0.1962013562575584</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2307396384049585</v>
+        <v>0.2307173264609016</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>145873</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>122796</v>
+        <v>124206</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>170082</v>
+        <v>171751</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1032412161927375</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08690800533521137</v>
+        <v>0.08790652444549324</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1203744022269261</v>
+        <v>0.1215562182644955</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>93</v>
@@ -4297,19 +4297,19 @@
         <v>95572</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78205</v>
+        <v>77833</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>115680</v>
+        <v>117130</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0929572998485894</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07606584065500344</v>
+        <v>0.07570392035848617</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1125159216865075</v>
+        <v>0.1139263176980118</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>229</v>
@@ -4318,19 +4318,19 @@
         <v>241445</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>211954</v>
+        <v>213647</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>269441</v>
+        <v>274865</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09890984476437251</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08682847442983063</v>
+        <v>0.08752195472476725</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1103787139213857</v>
+        <v>0.1126003358140497</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>11069</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5426</v>
+        <v>6010</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18562</v>
+        <v>19416</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2707999764490818</v>
+        <v>0.2707999764490819</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1327427438136231</v>
+        <v>0.1470353765407677</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4541072141237852</v>
+        <v>0.4750042675975524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4682,19 +4682,19 @@
         <v>3687</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7370</v>
+        <v>7294</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1631466717214788</v>
+        <v>0.1631466717214789</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06189301611266158</v>
+        <v>0.06172352171300529</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.326116373328394</v>
+        <v>0.3227382519377535</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -4703,19 +4703,19 @@
         <v>14756</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8079</v>
+        <v>8932</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22339</v>
+        <v>22202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2324716539952282</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.127282525264507</v>
+        <v>0.140707730914886</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3519346121360792</v>
+        <v>0.3497713892565992</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>5968</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1954</v>
+        <v>2098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13185</v>
+        <v>13454</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1459952725928611</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04781418577963386</v>
+        <v>0.05131811578153096</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3225658811606413</v>
+        <v>0.3291497751874424</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -4753,19 +4753,19 @@
         <v>5498</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2469</v>
+        <v>2192</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9977</v>
+        <v>9600</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.243255494787194</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1092471175655915</v>
+        <v>0.09697484843748487</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4414692842701465</v>
+        <v>0.424793370245258</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -4774,19 +4774,19 @@
         <v>11465</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5866</v>
+        <v>6198</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19308</v>
+        <v>19950</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.180623296020757</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09240684386840986</v>
+        <v>0.09764420691052465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3041764675062909</v>
+        <v>0.3142937071909788</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>16730</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9927</v>
+        <v>9173</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26689</v>
+        <v>26443</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4092855130961062</v>
+        <v>0.4092855130961063</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2428589104231106</v>
+        <v>0.2244204883840764</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6529158909778244</v>
+        <v>0.6469082152830928</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -4824,19 +4824,19 @@
         <v>7160</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3874</v>
+        <v>3907</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11298</v>
+        <v>11333</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3168073901010086</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1713950004313119</v>
+        <v>0.1728718791028326</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4999160726520226</v>
+        <v>0.5014784624040969</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -4845,19 +4845,19 @@
         <v>23890</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15817</v>
+        <v>15506</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34304</v>
+        <v>34528</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3763600833840132</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2491758071563707</v>
+        <v>0.2442889328679267</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5404187341059259</v>
+        <v>0.5439599895294258</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>7109</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2624</v>
+        <v>2771</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14449</v>
+        <v>15005</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1739192378619507</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06418653530985481</v>
+        <v>0.06778632198365851</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3534808405020309</v>
+        <v>0.3670749199310293</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4895,19 +4895,19 @@
         <v>4210</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1789</v>
+        <v>1828</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7759</v>
+        <v>7726</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1862802799699863</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07914252091713313</v>
+        <v>0.080871585349303</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3433256063431784</v>
+        <v>0.3418509616120042</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -4916,19 +4916,19 @@
         <v>11319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6153</v>
+        <v>6312</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18983</v>
+        <v>19611</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1783201989748609</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09692921044851785</v>
+        <v>0.09944476113038683</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2990572755527435</v>
+        <v>0.3089514245623949</v>
       </c>
     </row>
     <row r="8">
@@ -4958,19 +4958,19 @@
         <v>2046</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5384</v>
+        <v>5667</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09051016342033202</v>
+        <v>0.09051016342033204</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02681273849155412</v>
+        <v>0.02746006180833746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2382330320745923</v>
+        <v>0.2507579709213243</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -4979,19 +4979,19 @@
         <v>2045</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5616</v>
+        <v>5603</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03222476762514082</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00940952886635216</v>
+        <v>0.008617139654639507</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08847877412851643</v>
+        <v>0.08827608645338555</v>
       </c>
     </row>
     <row r="9">
@@ -5083,19 +5083,19 @@
         <v>53355</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39704</v>
+        <v>38973</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68643</v>
+        <v>69210</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1806811234090333</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1344526974583607</v>
+        <v>0.1319770819440391</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2324499421366252</v>
+        <v>0.2343706720257366</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -5104,19 +5104,19 @@
         <v>56412</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45484</v>
+        <v>44581</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68234</v>
+        <v>68246</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2256492745868677</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1819347712833259</v>
+        <v>0.1783225307161122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2729368823457188</v>
+        <v>0.2729848574825809</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>116</v>
@@ -5125,19 +5125,19 @@
         <v>109768</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91879</v>
+        <v>91679</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130468</v>
+        <v>129076</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2012972940502892</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1684925612860299</v>
+        <v>0.1681244077761578</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2392591246907294</v>
+        <v>0.236705147175131</v>
       </c>
     </row>
     <row r="11">
@@ -5154,19 +5154,19 @@
         <v>49181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36072</v>
+        <v>35903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>65723</v>
+        <v>66416</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1665442414461076</v>
+        <v>0.1665442414461077</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1221519718581535</v>
+        <v>0.1215797597116345</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2225624587712938</v>
+        <v>0.2249072281509508</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -5175,19 +5175,19 @@
         <v>30548</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22112</v>
+        <v>22288</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39209</v>
+        <v>40895</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1221924161330588</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08844674541644214</v>
+        <v>0.0891508940173736</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1568376069912411</v>
+        <v>0.1635819239286047</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>83</v>
@@ -5196,19 +5196,19 @@
         <v>79729</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>64158</v>
+        <v>64883</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>99668</v>
+        <v>98408</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1462106325483574</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.117655389213051</v>
+        <v>0.1189861380883001</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1827762465441287</v>
+        <v>0.1804656722208913</v>
       </c>
     </row>
     <row r="12">
@@ -5225,19 +5225,19 @@
         <v>105333</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>85857</v>
+        <v>86426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>123890</v>
+        <v>124678</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3566943586290147</v>
+        <v>0.3566943586290148</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.290742709774682</v>
+        <v>0.2926699722556446</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4195371805797231</v>
+        <v>0.4222053350527379</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>109</v>
@@ -5246,19 +5246,19 @@
         <v>76644</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>64469</v>
+        <v>63852</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>90297</v>
+        <v>89183</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3065769224988703</v>
+        <v>0.3065769224988702</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2578755673019144</v>
+        <v>0.2554081813951607</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3611875413555944</v>
+        <v>0.3567313420527762</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>197</v>
@@ -5267,19 +5267,19 @@
         <v>181977</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>157795</v>
+        <v>159948</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>204868</v>
+        <v>205196</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3337174385578466</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2893723288418919</v>
+        <v>0.293320218969597</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3756958852040481</v>
+        <v>0.3762980002487891</v>
       </c>
     </row>
     <row r="13">
@@ -5296,19 +5296,19 @@
         <v>63478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49405</v>
+        <v>49943</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80288</v>
+        <v>81354</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.214958524096223</v>
+        <v>0.2149585240962231</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1673035344008302</v>
+        <v>0.1691248112685579</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2718827776818615</v>
+        <v>0.2754955152506871</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -5317,19 +5317,19 @@
         <v>61463</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49188</v>
+        <v>49945</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74212</v>
+        <v>75869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2458526313730663</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1967520522861723</v>
+        <v>0.1997815327508887</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2968472958208694</v>
+        <v>0.3034768286146673</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>126</v>
@@ -5338,19 +5338,19 @@
         <v>124941</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>107058</v>
+        <v>105657</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>147253</v>
+        <v>145344</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2291222860198534</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1963270906341423</v>
+        <v>0.1937580462428223</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2700393585393405</v>
+        <v>0.2665386530027268</v>
       </c>
     </row>
     <row r="14">
@@ -5367,19 +5367,19 @@
         <v>23955</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13864</v>
+        <v>13578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39339</v>
+        <v>41563</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08112175241962147</v>
+        <v>0.08112175241962148</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04694896854233342</v>
+        <v>0.04597922549843737</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1332148863114344</v>
+        <v>0.140749005963078</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -5388,19 +5388,19 @@
         <v>24932</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16951</v>
+        <v>17075</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34622</v>
+        <v>36174</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09972875540813707</v>
+        <v>0.09972875540813708</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06780316430778525</v>
+        <v>0.06829894704259565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1384869966200134</v>
+        <v>0.144695157061231</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -5409,19 +5409,19 @@
         <v>48888</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>34503</v>
+        <v>35579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68044</v>
+        <v>66518</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08965234882365337</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06327256615931129</v>
+        <v>0.06524557262516263</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1247818938403553</v>
+        <v>0.1219829073617616</v>
       </c>
     </row>
     <row r="15">
@@ -5513,19 +5513,19 @@
         <v>64788</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52277</v>
+        <v>52189</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79901</v>
+        <v>78438</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4691780087719202</v>
+        <v>0.4691780087719203</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3785763883756297</v>
+        <v>0.3779369747532868</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5786266546189948</v>
+        <v>0.5680258528353695</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -5534,19 +5534,19 @@
         <v>41133</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32232</v>
+        <v>31234</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51912</v>
+        <v>50819</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3583807055701007</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2808340426051529</v>
+        <v>0.2721373230360274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4523018340826273</v>
+        <v>0.4427713110056837</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>99</v>
@@ -5555,19 +5555,19 @@
         <v>105921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89300</v>
+        <v>89848</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>123329</v>
+        <v>124410</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4188871176578878</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3531579228255028</v>
+        <v>0.3553235855524769</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4877312551383746</v>
+        <v>0.4920088483981948</v>
       </c>
     </row>
     <row r="17">
@@ -5584,19 +5584,19 @@
         <v>13436</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7084</v>
+        <v>6802</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26824</v>
+        <v>26537</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09729728695605271</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0512993147155849</v>
+        <v>0.04925496244871333</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1942513321138973</v>
+        <v>0.192173857095551</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -5605,19 +5605,19 @@
         <v>18782</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12161</v>
+        <v>12456</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27137</v>
+        <v>27503</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1636469765998218</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1059579625665706</v>
+        <v>0.1085267041761139</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2364378858498699</v>
+        <v>0.2396275860006098</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -5626,19 +5626,19 @@
         <v>32218</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22909</v>
+        <v>22618</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46648</v>
+        <v>45650</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1274134082053815</v>
+        <v>0.1274134082053816</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09059914026485684</v>
+        <v>0.08944990307008395</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1844781645627262</v>
+        <v>0.1805350755491109</v>
       </c>
     </row>
     <row r="18">
@@ -5655,19 +5655,19 @@
         <v>34211</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24143</v>
+        <v>23989</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47465</v>
+        <v>46654</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2477514292304127</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1748387304272346</v>
+        <v>0.1737223326871637</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3437316325276872</v>
+        <v>0.3378569335217648</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>47</v>
@@ -5676,19 +5676,19 @@
         <v>36711</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>28109</v>
+        <v>28046</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45713</v>
+        <v>46680</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3198568304979478</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2449116288330775</v>
+        <v>0.2443624547791844</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3982851182275042</v>
+        <v>0.4067132783523621</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>78</v>
@@ -5697,19 +5697,19 @@
         <v>70923</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>57151</v>
+        <v>56804</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>86237</v>
+        <v>86653</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2804800677359362</v>
+        <v>0.2804800677359363</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2260181087968611</v>
+        <v>0.2246433132758368</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3410420666601007</v>
+        <v>0.342687608859488</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         <v>20308</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12197</v>
+        <v>11982</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32143</v>
+        <v>30263</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1470640424359098</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0883297193941278</v>
+        <v>0.08676988276498718</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2327747097682535</v>
+        <v>0.2191555139663305</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -5747,19 +5747,19 @@
         <v>12597</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7543</v>
+        <v>7626</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19190</v>
+        <v>20203</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1097578204923607</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06571844501941192</v>
+        <v>0.06644769334287708</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1672019705169677</v>
+        <v>0.1760249410963621</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -5768,19 +5768,19 @@
         <v>32905</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23679</v>
+        <v>22769</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46311</v>
+        <v>44402</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1301307499150486</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09364497066810565</v>
+        <v>0.09004496509897031</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1831463893729592</v>
+        <v>0.1755977895200175</v>
       </c>
     </row>
     <row r="20">
@@ -5797,19 +5797,19 @@
         <v>5345</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1994</v>
+        <v>1939</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12379</v>
+        <v>11859</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03870923260570455</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0144413143902438</v>
+        <v>0.01403903588098323</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08964268608027104</v>
+        <v>0.08588343969592081</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -5818,19 +5818,19 @@
         <v>5550</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1721</v>
+        <v>2202</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11306</v>
+        <v>12488</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04835766683976887</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01499523083286518</v>
+        <v>0.019185544952647</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09850588346707878</v>
+        <v>0.1088010093319738</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -5839,19 +5839,19 @@
         <v>10895</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5511</v>
+        <v>5740</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18877</v>
+        <v>18715</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04308865648574593</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02179434309241188</v>
+        <v>0.02269918758151168</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07465483496969784</v>
+        <v>0.0740135859377903</v>
       </c>
     </row>
     <row r="21">
@@ -5943,19 +5943,19 @@
         <v>129213</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106924</v>
+        <v>106039</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>152700</v>
+        <v>151383</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2724473427377808</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2254511447528399</v>
+        <v>0.2235860388088379</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3219721854052675</v>
+        <v>0.3191946902692606</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>125</v>
@@ -5964,19 +5964,19 @@
         <v>101232</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85719</v>
+        <v>84145</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>117001</v>
+        <v>117051</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2613294966207186</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2212832076566193</v>
+        <v>0.2172195744888621</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3020371614144614</v>
+        <v>0.3021655088611219</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>230</v>
@@ -5985,19 +5985,19 @@
         <v>230444</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>202105</v>
+        <v>202731</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>256254</v>
+        <v>257430</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2674490114974309</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2345585118254832</v>
+        <v>0.2352858013005457</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2974026167371582</v>
+        <v>0.2987680072999301</v>
       </c>
     </row>
     <row r="23">
@@ -6014,19 +6014,19 @@
         <v>68584</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52683</v>
+        <v>50692</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>88830</v>
+        <v>89197</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1446111511119188</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1110827463315239</v>
+        <v>0.1068858671583264</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1873007842036928</v>
+        <v>0.1880744603903811</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>75</v>
@@ -6035,19 +6035,19 @@
         <v>54828</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>42899</v>
+        <v>43772</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>68119</v>
+        <v>68498</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.141537742576093</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1107427215525096</v>
+        <v>0.112996483472536</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1758487966874191</v>
+        <v>0.1768269294115909</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>131</v>
@@ -6056,19 +6056,19 @@
         <v>123412</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>103622</v>
+        <v>102770</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>146029</v>
+        <v>148306</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1432294164002465</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1202616977297684</v>
+        <v>0.1192723026950268</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1694781849314018</v>
+        <v>0.1721211664677189</v>
       </c>
     </row>
     <row r="24">
@@ -6085,19 +6085,19 @@
         <v>156274</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>132469</v>
+        <v>133221</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>181771</v>
+        <v>184179</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3295071527946801</v>
+        <v>0.32950715279468</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.279313550854421</v>
+        <v>0.2808998949395889</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.38326855338381</v>
+        <v>0.3883443180954038</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>166</v>
@@ -6106,19 +6106,19 @@
         <v>120515</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>105088</v>
+        <v>105203</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>137242</v>
+        <v>137151</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3111084406812525</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2712842570322188</v>
+        <v>0.2715811082355902</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3542899263636761</v>
+        <v>0.3540530732244827</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>296</v>
@@ -6127,19 +6127,19 @@
         <v>276789</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>250089</v>
+        <v>248717</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>309018</v>
+        <v>306547</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3212355094772198</v>
+        <v>0.32123550947722</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2902479294067168</v>
+        <v>0.2886557434984738</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3586399619548311</v>
+        <v>0.3557724172243432</v>
       </c>
     </row>
     <row r="25">
@@ -6156,19 +6156,19 @@
         <v>90895</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>72659</v>
+        <v>71990</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>110455</v>
+        <v>110708</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1916532004171881</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1532032207081553</v>
+        <v>0.1517916857107427</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.232896500585609</v>
+        <v>0.233431221160131</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>95</v>
@@ -6177,19 +6177,19 @@
         <v>78270</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64785</v>
+        <v>63764</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>94094</v>
+        <v>94432</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2020539853845034</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1672426237833588</v>
+        <v>0.1646069403165974</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2429024547895577</v>
+        <v>0.2437760661213638</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>172</v>
@@ -6198,19 +6198,19 @@
         <v>169165</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>146668</v>
+        <v>147099</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>195103</v>
+        <v>195664</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1963291572418208</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1702197335630013</v>
+        <v>0.1707201019475025</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2264326012639085</v>
+        <v>0.2270840523813774</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>29301</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17613</v>
+        <v>18569</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44870</v>
+        <v>48131</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0617811529384322</v>
+        <v>0.06178115293843221</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03713730012636965</v>
+        <v>0.0391530173885323</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09460927707702552</v>
+        <v>0.1014848115366095</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -6248,19 +6248,19 @@
         <v>32528</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>23827</v>
+        <v>23179</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>44669</v>
+        <v>45755</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08397033473743247</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06150954250712024</v>
+        <v>0.05983520512270453</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1153129994427602</v>
+        <v>0.1181171693394846</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>57</v>
@@ -6269,19 +6269,19 @@
         <v>61829</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>46280</v>
+        <v>44932</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>81482</v>
+        <v>80282</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0717569053832818</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05371172406226498</v>
+        <v>0.0521472853003367</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09456606000390089</v>
+        <v>0.09317316778931656</v>
       </c>
     </row>
     <row r="27">
